--- a/results/I3_N5_M3_T30_C100_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1842.519424134</v>
+        <v>1818.718352253817</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.70842812148697</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.246023956405264</v>
+        <v>7.908099007898997</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.927019968912668</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1196.580000000006</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.55</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -799,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -923,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -973,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.35124120223184</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -981,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.163074147185014</v>
+        <v>15.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -989,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>4.798343757406283</v>
       </c>
     </row>
     <row r="6">
@@ -997,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>2.420950226667209</v>
       </c>
     </row>
     <row r="7">
@@ -1005,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.845188035790088</v>
+        <v>27.07084158034161</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.9200084964106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.83692585281499</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.15481196420991</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1092,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1106,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1120,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1134,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1145,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1159,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1173,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1187,13 +1143,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1201,13 +1157,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1215,15 +1171,71 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1337,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>168.645</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1348,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>175.91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -1359,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>167.005</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>178.63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -1381,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
@@ -1392,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1403,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -1414,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
@@ -1425,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -1436,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1447,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1458,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -1469,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -1480,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -1491,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>145.4599999999998</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1502,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>137.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1513,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>145.8799999999998</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1524,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>147.8799999999998</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1535,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>144.4799999999998</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1546,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1557,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
@@ -1568,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -1579,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -1590,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
@@ -1601,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.72</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
@@ -1612,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>168.645</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
@@ -1623,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>175.91</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>167.005</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
@@ -1645,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>178.63</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37">
@@ -1656,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>101.3750000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1667,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>103.0400000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1678,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>103.9250000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1689,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>105.4350000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1700,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>105.7050000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1711,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>145.4599999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1722,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>137.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1733,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>145.8799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1744,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>147.8799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1755,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>144.4799999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.72000000000003</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -1813,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>68.64500000000001</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -1824,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>75.91</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1835,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>67.005</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -1846,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>78.63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1857,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.375000000000796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1868,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.040000000000802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1879,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.925000000000807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1890,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.435000000000798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1901,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.705000000000794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1912,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>45.45999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1923,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>37.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1934,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>45.87999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1945,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>47.87999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1956,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>44.47999999999979</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2014,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2025,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2036,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2047,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2058,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2069,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2080,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2091,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2102,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2113,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2124,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2135,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2146,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2157,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2168,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2179,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2190,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2201,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2212,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2223,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2234,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2245,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2256,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2267,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,10 +2430,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2429,10 +2441,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2440,10 +2452,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2451,10 +2463,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2462,34 +2474,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
